--- a/data/pxn_curves.xlsx
+++ b/data/pxn_curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Zizheng\Dailies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8CB44-7165-445B-ADC5-D1FB218B7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6144C756-409C-4EF6-9796-8E0435A724AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58300B67-9301-408F-92BC-0C65391FA5C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58300B67-9301-408F-92BC-0C65391FA5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="105">
   <si>
     <t>Instrument</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
   </si>
 </sst>
 </file>
@@ -757,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDBD047-2C89-48C7-9161-72C7B7F2BBB1}">
   <dimension ref="A1:H1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A993" workbookViewId="0">
+      <selection activeCell="N1004" sqref="N1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26382,124 +26385,316 @@
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="2"/>
-      <c r="F986" s="2"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="4"/>
+      <c r="A986" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G986" s="3">
+        <v>45658</v>
+      </c>
+      <c r="H986" s="4">
+        <v>183.16999999999996</v>
+      </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="4"/>
+      <c r="A987" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G987" s="3">
+        <v>45689</v>
+      </c>
+      <c r="H987" s="4">
+        <v>208.83000000000004</v>
+      </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="2"/>
-      <c r="F988" s="2"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="4"/>
+      <c r="A988" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F988" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G988" s="3">
+        <v>45717</v>
+      </c>
+      <c r="H988" s="4">
+        <v>230.5</v>
+      </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
-      <c r="E989" s="2"/>
-      <c r="F989" s="2"/>
-      <c r="G989" s="3"/>
-      <c r="H989" s="4"/>
+      <c r="A989" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C989" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G989" s="3">
+        <v>45748</v>
+      </c>
+      <c r="H989" s="4">
+        <v>240.75</v>
+      </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
-      <c r="G990" s="3"/>
-      <c r="H990" s="4"/>
+      <c r="A990" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C990" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F990" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G990" s="3">
+        <v>45778</v>
+      </c>
+      <c r="H990" s="4">
+        <v>249.75</v>
+      </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
-      <c r="E991" s="2"/>
-      <c r="F991" s="2"/>
-      <c r="G991" s="3"/>
-      <c r="H991" s="4"/>
+      <c r="A991" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C991" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F991" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G991" s="3">
+        <v>45809</v>
+      </c>
+      <c r="H991" s="4">
+        <v>255.75</v>
+      </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
-      <c r="E992" s="2"/>
-      <c r="F992" s="2"/>
-      <c r="G992" s="3"/>
-      <c r="H992" s="4"/>
+      <c r="A992" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C992" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F992" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G992" s="3">
+        <v>45839</v>
+      </c>
+      <c r="H992" s="4">
+        <v>261.25</v>
+      </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
-      <c r="E993" s="2"/>
-      <c r="F993" s="2"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="4"/>
+      <c r="A993" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C993" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F993" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G993" s="3">
+        <v>45870</v>
+      </c>
+      <c r="H993" s="4">
+        <v>265.5</v>
+      </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
-      <c r="E994" s="2"/>
-      <c r="F994" s="2"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="4"/>
+      <c r="A994" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C994" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F994" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G994" s="3">
+        <v>45901</v>
+      </c>
+      <c r="H994" s="4">
+        <v>270</v>
+      </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="4"/>
+      <c r="A995" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C995" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G995" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H995" s="4">
+        <v>273.75</v>
+      </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="4"/>
+      <c r="A996" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C996" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G996" s="3">
+        <v>45962</v>
+      </c>
+      <c r="H996" s="4">
+        <v>277.5</v>
+      </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="4"/>
+      <c r="A997" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C997" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G997" s="3">
+        <v>45992</v>
+      </c>
+      <c r="H997" s="4">
+        <v>281.5</v>
+      </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
